--- a/results/SourceMeter/Java - SourceMeter (LICCA).xlsx
+++ b/results/SourceMeter/Java - SourceMeter (LICCA).xlsx
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5930,8 +5930,8 @@
         <v>97.475050393080124</v>
       </c>
       <c r="L61" s="23">
-        <f>171 - 5.2 * LN(K61) - 0.23 * (E61) - 16.2 * LN(H61)</f>
-        <v>118.96778796501758</v>
+        <f>MAX(0,(171 - 5.2 * LN(K61) - 0.23 * (E61) - 16.2 *LN(H61))*100 / 171)</f>
+        <v>69.571805827495666</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">

--- a/results/SourceMeter/Java - SourceMeter (LICCA).xlsx
+++ b/results/SourceMeter/Java - SourceMeter (LICCA).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>Name </t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>Filename </t>
+  </si>
+  <si>
+    <t>(manually)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDEV.P</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -416,7 +425,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +433,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM62"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61:M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5199,6 +5219,12 @@
         <v>7</v>
       </c>
     </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="K41" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="31"/>
+    </row>
     <row r="42" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="19"/>
       <c r="C42" s="2" t="s">
@@ -5225,6 +5251,12 @@
       <c r="J42" s="20" t="s">
         <v>36</v>
       </c>
+      <c r="K42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
@@ -5262,6 +5294,14 @@
         <f>AVERAGEIF($B$3:$B$38, B43, $AL$3:$AL$38)</f>
         <v>5.5</v>
       </c>
+      <c r="K43">
+        <f>C43*LOG(D43,2)</f>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L43">
+        <f>MAX(0,(171 - 5.2 * LN(K43) - 0.23 * (E43) - 16.2 *LN(H43))*100 / 171)</f>
+        <v>69.776052434487539</v>
+      </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -5299,6 +5339,14 @@
         <f t="shared" ref="J44:J60" si="7">AVERAGEIF($B$3:$B$38, B44, $AL$3:$AL$38)</f>
         <v>5.5</v>
       </c>
+      <c r="K44">
+        <f t="shared" ref="K44:K60" si="8">C44*LOG(D44,2)</f>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:L60" si="9">MAX(0,(171 - 5.2 * LN(K44) - 0.23 * (E44) - 16.2 *LN(H44))*100 / 171)</f>
+        <v>69.776052434487539</v>
+      </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
@@ -5336,6 +5384,14 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
@@ -5373,6 +5429,14 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>68.951734126164737</v>
+      </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
@@ -5410,6 +5474,14 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
@@ -5447,8 +5519,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -5484,8 +5564,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>94.361212812597856</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>69.820470378226844</v>
+      </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>48</v>
       </c>
@@ -5521,8 +5609,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>115.2532725704513</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>69.2122772549518</v>
+      </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>58</v>
       </c>
@@ -5558,8 +5654,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>97.627075056250192</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>69.717003284512742</v>
+      </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>39</v>
       </c>
@@ -5595,8 +5699,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>93.872187554086722</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>69.83627095024201</v>
+      </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>49</v>
       </c>
@@ -5632,8 +5744,16 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>110.7174966908325</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>67.684502307902662</v>
+      </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>50</v>
       </c>
@@ -5669,8 +5789,16 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>83.259893658174576</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>71.104021990034383</v>
+      </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>51</v>
       </c>
@@ -5706,8 +5834,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>69.178274253851541</v>
+      </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>52</v>
       </c>
@@ -5743,8 +5879,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>53</v>
       </c>
@@ -5780,8 +5924,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>54</v>
       </c>
@@ -5817,8 +5969,16 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>69.776052434487539</v>
+      </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>55</v>
       </c>
@@ -5854,8 +6014,16 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>95.74963130516845</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>68.951734126164737</v>
+      </c>
     </row>
-    <row r="60" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="19" t="s">
         <v>56</v>
       </c>
@@ -5891,82 +6059,146 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
+      <c r="K60" s="17">
+        <f t="shared" si="8"/>
+        <v>88.810553235386209</v>
+      </c>
+      <c r="L60" s="18">
+        <f t="shared" si="9"/>
+        <v>70.00482595334114</v>
+      </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C61" s="21">
         <f>AVERAGE(C43:C60)</f>
         <v>25.777777777777779</v>
       </c>
       <c r="D61" s="21">
-        <f t="shared" ref="D61:J61" si="8">AVERAGE(D43:D60)</f>
+        <f t="shared" ref="D61:L61" si="10">AVERAGE(D43:D60)</f>
         <v>13.75</v>
       </c>
       <c r="E61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="F61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.583333333333333</v>
       </c>
       <c r="H61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.583333333333333</v>
       </c>
       <c r="I61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.583333333333333</v>
       </c>
       <c r="J61" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.583333333333333</v>
       </c>
       <c r="K61" s="22">
-        <f>C61*LOG(D61,2)</f>
-        <v>97.475050393080124</v>
-      </c>
-      <c r="L61" s="23">
-        <f>MAX(0,(171 - 5.2 * LN(K61) - 0.23 * (E61) - 16.2 *LN(H61))*100 / 171)</f>
-        <v>69.571805827495666</v>
+        <f t="shared" si="10"/>
+        <v>97.522111368303527</v>
+      </c>
+      <c r="L61" s="21">
+        <f t="shared" si="10"/>
+        <v>69.592751894516283</v>
+      </c>
+      <c r="M61" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C62" s="24" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="21">
+        <f>_xlfn.STDEV.P(C43:C60)</f>
+        <v>1.5204369092671119</v>
+      </c>
+      <c r="D62" s="21">
+        <f t="shared" ref="D62:J62" si="11">_xlfn.STDEV.P(D43:D60)</f>
+        <v>0.82073815014967544</v>
+      </c>
+      <c r="E62" s="21">
+        <f t="shared" si="11"/>
+        <v>0.15713484026367722</v>
+      </c>
+      <c r="F62" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="11"/>
+        <v>0.30046260628866578</v>
+      </c>
+      <c r="H62" s="21">
+        <f t="shared" si="11"/>
+        <v>0.30046260628866578</v>
+      </c>
+      <c r="I62" s="21">
+        <f t="shared" si="11"/>
+        <v>0.30046260628866578</v>
+      </c>
+      <c r="J62" s="30">
+        <f t="shared" si="11"/>
+        <v>0.30046260628866578</v>
+      </c>
+      <c r="K62" s="28">
+        <f t="shared" ref="K62:L62" si="12">_xlfn.STDEV.P(K43:K60)</f>
+        <v>7.7962821656166463</v>
+      </c>
+      <c r="L62" s="29">
+        <f t="shared" si="12"/>
+        <v>0.65102088167966077</v>
+      </c>
+      <c r="M62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D63" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="24" t="s">
+      <c r="E63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G63" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H63" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I63" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J62" s="26" t="s">
+      <c r="J63" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K62" s="24" t="s">
+      <c r="K63" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="L63" s="23" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K41:L41"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="javascript:(function() %7bwindow.open('/code?id=Licca_Java:S3b.java&amp;line=13%27,%20%27Licca_Java:S3b.java%27,%20%27resizable,scrollbars,status%27);%7d)()"/>
     <hyperlink ref="A4" r:id="rId2" display="javascript:(function() %7bwindow.open('/code?id=Licca_Java:Original.java&amp;line=13%27,%20%27Licca_Java:Original.java%27,%20%27resizable,scrollbars,status%27);%7d)()"/>
